--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rbp3-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Rbp3-Notch1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>45.95651366666667</v>
+        <v>48.42420966666666</v>
       </c>
       <c r="N2">
-        <v>137.869541</v>
+        <v>145.272629</v>
       </c>
       <c r="O2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="P2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
       <c r="Q2">
-        <v>17.36960135475022</v>
+        <v>18.30228515438755</v>
       </c>
       <c r="R2">
-        <v>156.326412192752</v>
+        <v>164.720566389488</v>
       </c>
       <c r="S2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593259</v>
       </c>
       <c r="T2">
-        <v>0.6189188856627117</v>
+        <v>0.6311762527593258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -614,16 +614,16 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>6.849914666666666</v>
+        <v>6.849914666666667</v>
       </c>
       <c r="N3">
         <v>20.549744</v>
       </c>
       <c r="O3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="P3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
       <c r="Q3">
         <v>2.588975480974222</v>
@@ -632,10 +632,10 @@
         <v>23.300779328768</v>
       </c>
       <c r="S3">
-        <v>0.0922511568899326</v>
+        <v>0.08928392431779728</v>
       </c>
       <c r="T3">
-        <v>0.09225115688993259</v>
+        <v>0.08928392431779726</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,25 +679,25 @@
         <v>21.446458</v>
       </c>
       <c r="N4">
-        <v>64.33937400000001</v>
+        <v>64.33937399999999</v>
       </c>
       <c r="O4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="P4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="Q4">
-        <v>8.105846075125335</v>
+        <v>8.105846075125331</v>
       </c>
       <c r="R4">
-        <v>72.95261467612801</v>
+        <v>72.95261467612799</v>
       </c>
       <c r="S4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
       <c r="T4">
-        <v>0.2888299574473556</v>
+        <v>0.2795398229228769</v>
       </c>
     </row>
   </sheetData>
